--- a/Data/Tables/DialogTalk.xlsx
+++ b/Data/Tables/DialogTalk.xlsx
@@ -4,34 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DialogList" sheetId="4" r:id="rId1"/>
     <sheet name="DialogTalk" sheetId="3" r:id="rId2"/>
     <sheet name="DialogChoice" sheetId="6" r:id="rId3"/>
-    <sheet name="DialogCondition" sheetId="5" r:id="rId4"/>
-    <sheet name="DialogEvent" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="497">
   <si>
     <t>对话ID</t>
   </si>
@@ -1545,38 +1530,11 @@
   <si>
     <t>ytjr</t>
   </si>
-  <si>
-    <t>DialogueID</t>
-  </si>
-  <si>
-    <t>DialogCondType</t>
-  </si>
-  <si>
-    <t>DIALOGCOND_TYPE_LEVEL</t>
-  </si>
-  <si>
-    <t>对话伴随事件</t>
-  </si>
-  <si>
-    <t>事件对应ID</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Event_ID</t>
-  </si>
-  <si>
-    <t>DIALOG_EVENT_TYPE_CAMERA;</t>
-  </si>
-  <si>
-    <t>1;</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1597,6 +1555,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1610,6 +1596,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1649,21 +1643,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1714,28 +1693,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1756,13 +1714,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,19 +1780,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1816,18 +1828,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1840,31 +1840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,19 +1864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,12 +1888,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1941,7 +1899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1951,45 +1909,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="4" tint="0.399975585192419"/>
@@ -2000,13 +1919,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2040,21 +1963,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2111,172 +2019,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2287,52 +2181,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2387,30 +2281,6 @@
     <tableColumn id="5" name="Weight"/>
     <tableColumn id="6" name="NextDialogIndex"/>
     <tableColumn id="7" name="QuestGroupID"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DialogCondition" displayName="DialogCondition" ref="A2:C8" totalsRowShown="0">
-  <autoFilter ref="A2:C8"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="DialogueID"/>
-    <tableColumn id="2" name="DialogCondType"/>
-    <tableColumn id="3" name="Param"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="DialogEvent" displayName="DialogEvent" ref="A2:C5" totalsRowShown="0">
-  <autoFilter ref="A2:C5"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="DialogueID"/>
-    <tableColumn id="2" name="Event"/>
-    <tableColumn id="3" name="Event_ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2676,8 +2546,8 @@
   <sheetPr/>
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2818,7 +2688,7 @@
       <c r="A10">
         <v>10008</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C10">
@@ -2846,7 +2716,7 @@
       <c r="A12">
         <v>10010</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C12">
@@ -2888,7 +2758,7 @@
       <c r="A15">
         <v>10013</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C15">
@@ -2902,7 +2772,7 @@
       <c r="A16">
         <v>10014</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C16">
@@ -4106,7 +3976,7 @@
       <c r="A102">
         <v>20102</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C102">
@@ -4120,7 +3990,7 @@
       <c r="A103">
         <v>20201</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C103">
@@ -4134,7 +4004,7 @@
       <c r="A104">
         <v>20202</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C104">
@@ -4148,7 +4018,7 @@
       <c r="A105">
         <v>20401</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C105">
@@ -4162,7 +4032,7 @@
       <c r="A106">
         <v>20402</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="6">
         <v>20302001</v>
       </c>
       <c r="C106">
@@ -4204,60 +4074,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4302,7 +4172,7 @@
       <c r="B5" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="2">
         <v>21</v>
       </c>
       <c r="D5">
@@ -4319,7 +4189,7 @@
       <c r="B6" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="3">
         <v>11</v>
       </c>
       <c r="D6">
@@ -4336,7 +4206,7 @@
       <c r="B7" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="2">
         <v>21</v>
       </c>
       <c r="D7">
@@ -4353,7 +4223,7 @@
       <c r="B8" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="3">
         <v>11</v>
       </c>
       <c r="D8">
@@ -4370,7 +4240,7 @@
       <c r="B9" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="2">
         <v>21</v>
       </c>
       <c r="D9">
@@ -4387,7 +4257,7 @@
       <c r="B10" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="3">
         <v>11</v>
       </c>
       <c r="D10">
@@ -4404,7 +4274,7 @@
       <c r="B11" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="2">
         <v>21</v>
       </c>
       <c r="D11">
@@ -4424,7 +4294,7 @@
       <c r="B12" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="3">
         <v>21</v>
       </c>
       <c r="D12">
@@ -4444,7 +4314,7 @@
       <c r="B13" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="2">
         <v>21</v>
       </c>
       <c r="D13">
@@ -4464,7 +4334,7 @@
       <c r="B14" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="3">
         <v>21</v>
       </c>
       <c r="D14">
@@ -4484,7 +4354,7 @@
       <c r="B15" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="2">
         <v>11</v>
       </c>
       <c r="D15">
@@ -4504,7 +4374,7 @@
       <c r="B16" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="3">
         <v>11</v>
       </c>
       <c r="D16">
@@ -4524,7 +4394,7 @@
       <c r="B17" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="2">
         <v>11</v>
       </c>
       <c r="D17">
@@ -4541,7 +4411,7 @@
       <c r="B18" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="3">
         <v>11</v>
       </c>
       <c r="D18">
@@ -4558,7 +4428,7 @@
       <c r="B19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="2">
         <v>21</v>
       </c>
       <c r="D19">
@@ -4575,7 +4445,7 @@
       <c r="B20" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="3">
         <v>21</v>
       </c>
       <c r="D20">
@@ -4595,7 +4465,7 @@
       <c r="B21" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="2">
         <v>21</v>
       </c>
       <c r="D21">
@@ -4612,7 +4482,7 @@
       <c r="B22" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="3">
         <v>21</v>
       </c>
       <c r="D22">
@@ -4629,7 +4499,7 @@
       <c r="B23" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="2">
         <v>21</v>
       </c>
       <c r="D23">
@@ -4646,7 +4516,7 @@
       <c r="B24" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="3">
         <v>21</v>
       </c>
       <c r="D24">
@@ -4663,7 +4533,7 @@
       <c r="B25" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="2">
         <v>21</v>
       </c>
       <c r="D25">
@@ -4683,7 +4553,7 @@
       <c r="B26" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="3">
         <v>21</v>
       </c>
       <c r="D26">
@@ -4700,7 +4570,7 @@
       <c r="B27" t="s">
         <v>161</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="2">
         <v>21</v>
       </c>
       <c r="D27">
@@ -4720,7 +4590,7 @@
       <c r="B28" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="3">
         <v>21</v>
       </c>
       <c r="D28">
@@ -10287,8 +10157,8 @@
   <sheetPr/>
   <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -10402,165 +10272,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="26.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="8.89166666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15"/>
-    <row r="2" ht="15" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>499</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>499</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="28.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Data/Tables/DialogTalk.xlsx
+++ b/Data/Tables/DialogTalk.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DialogList" sheetId="4" r:id="rId1"/>
     <sheet name="DialogTalk" sheetId="3" r:id="rId2"/>
     <sheet name="DialogChoice" sheetId="6" r:id="rId3"/>
+    <sheet name="DialogEffect" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="508">
   <si>
     <t>对话ID</t>
   </si>
@@ -1510,6 +1511,9 @@
     <t>QuestGroupID</t>
   </si>
   <si>
+    <t>Effects</t>
+  </si>
+  <si>
     <t>DIALOG_CHOICE_CONDITION_TYPE_PLAYER_LEVEL</t>
   </si>
   <si>
@@ -1529,6 +1533,36 @@
   </si>
   <si>
     <t>ytjr</t>
+  </si>
+  <si>
+    <t>EffectID</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>DescInfo</t>
+  </si>
+  <si>
+    <t>DescID</t>
+  </si>
+  <si>
+    <t>Param1Type</t>
+  </si>
+  <si>
+    <t>Param1</t>
+  </si>
+  <si>
+    <t>Param1b</t>
+  </si>
+  <si>
+    <t>Param2Type</t>
+  </si>
+  <si>
+    <t>Param2</t>
+  </si>
+  <si>
+    <t>Param2b</t>
   </si>
 </sst>
 </file>
@@ -2271,9 +2305,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="DialogChoice" displayName="DialogChoice" ref="A2:G7" totalsRowShown="0">
-  <autoFilter ref="A2:G7"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="DialogChoice" displayName="DialogChoice" ref="A2:H7" totalsRowShown="0">
+  <autoFilter ref="A2:H7"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="DialogChoiceID"/>
     <tableColumn id="2" name="DialogChoiceCondition"/>
     <tableColumn id="3" name="Param"/>
@@ -2281,6 +2315,26 @@
     <tableColumn id="5" name="Weight"/>
     <tableColumn id="6" name="NextDialogIndex"/>
     <tableColumn id="7" name="QuestGroupID"/>
+    <tableColumn id="8" name="Effects"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:J4" totalsRowShown="0">
+  <autoFilter ref="A2:J4"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="EffectID"/>
+    <tableColumn id="2" name="Function"/>
+    <tableColumn id="3" name="DescInfo"/>
+    <tableColumn id="4" name="DescID"/>
+    <tableColumn id="5" name="Param1Type"/>
+    <tableColumn id="6" name="Param1"/>
+    <tableColumn id="7" name="Param1b"/>
+    <tableColumn id="8" name="Param2Type"/>
+    <tableColumn id="9" name="Param2"/>
+    <tableColumn id="10" name="Param2b"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10155,21 +10209,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:G7"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="49.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="25.8833333333333" customWidth="1"/>
     <col min="6" max="6" width="18.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>483</v>
       </c>
@@ -10191,16 +10246,19 @@
       <c r="G2" t="s">
         <v>489</v>
       </c>
+      <c r="H2" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -10214,10 +10272,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -10228,10 +10286,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -10242,10 +10300,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -10256,13 +10314,75 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F7">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
